--- a/Experimentno9/WEEK9.xlsx
+++ b/Experimentno9/WEEK9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Lab\9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D83C306-1652-4893-A27B-2757A165C600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31875B41-A70D-4188-B2BF-33D1AED4F6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1680" windowWidth="15375" windowHeight="9390" activeTab="1" xr2:uid="{00230943-9D8C-4491-A8BF-C8F63333C2DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00230943-9D8C-4491-A8BF-C8F63333C2DE}"/>
   </bookViews>
   <sheets>
     <sheet name="SET1" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>T</t>
+    <t>T2</t>
   </si>
   <si>
-    <t>X</t>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>T1</t>
   </si>
 </sst>
 </file>
@@ -395,260 +401,446 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00999264-99C7-4821-A68E-715DA0A2B2AC}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.51</v>
       </c>
       <c r="B2">
         <v>143</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0.6</v>
+      </c>
+      <c r="D2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.01</v>
       </c>
       <c r="B3">
         <v>142</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1.27</v>
+      </c>
+      <c r="D3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.45</v>
       </c>
       <c r="B4">
         <v>143</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1.85</v>
+      </c>
+      <c r="D4">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.97</v>
       </c>
       <c r="B5">
         <v>143</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7.47</v>
       </c>
       <c r="B6">
         <v>141</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3.05</v>
+      </c>
+      <c r="D6">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8.93</v>
       </c>
       <c r="B7">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>3.68</v>
+      </c>
+      <c r="D7">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10.41</v>
       </c>
       <c r="B8">
         <v>141</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>4.29</v>
+      </c>
+      <c r="D8">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11.96</v>
       </c>
       <c r="B9">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D9">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13.52</v>
       </c>
       <c r="B10">
         <v>130</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>5.51</v>
+      </c>
+      <c r="D10">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15.1</v>
       </c>
       <c r="B11">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>6.09</v>
+      </c>
+      <c r="D11">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16.739999999999998</v>
       </c>
       <c r="B12">
         <v>132</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>6.7</v>
+      </c>
+      <c r="D12">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18.32</v>
       </c>
       <c r="B13">
         <v>131</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>7.35</v>
+      </c>
+      <c r="D13">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>19.96</v>
       </c>
       <c r="B14">
         <v>129</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>7.89</v>
+      </c>
+      <c r="D14">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21.57</v>
       </c>
       <c r="B15">
         <v>128</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>8.56</v>
+      </c>
+      <c r="D15">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23.2</v>
       </c>
       <c r="B16">
         <v>130</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>9.17</v>
+      </c>
+      <c r="D16">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24.85</v>
       </c>
       <c r="B17">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="D17">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>26.48</v>
       </c>
       <c r="B18">
         <v>128</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>10.42</v>
+      </c>
+      <c r="D18">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>28.12</v>
       </c>
       <c r="B19">
         <v>128</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>11.03</v>
+      </c>
+      <c r="D19">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>29.77</v>
       </c>
       <c r="B20">
         <v>129</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>11.64</v>
+      </c>
+      <c r="D20">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31.4</v>
       </c>
       <c r="B21">
         <v>128</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>12.28</v>
+      </c>
+      <c r="D21">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>33.07</v>
       </c>
       <c r="B22">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>12.89</v>
+      </c>
+      <c r="D22">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>34.69</v>
       </c>
       <c r="B23">
         <v>126</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>13.51</v>
+      </c>
+      <c r="D23">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>36.369999999999997</v>
       </c>
       <c r="B24">
         <v>126</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>14.14</v>
+      </c>
+      <c r="D24">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>38.06</v>
       </c>
       <c r="B25">
         <v>127</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>14.79</v>
+      </c>
+      <c r="D25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>39.68</v>
       </c>
       <c r="B26">
         <v>127</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>15.39</v>
+      </c>
+      <c r="D26">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>41.39</v>
       </c>
       <c r="B27">
         <v>127</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="D27">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>43.05</v>
       </c>
       <c r="B28">
         <v>125</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>16.68</v>
+      </c>
+      <c r="D28">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>44.71</v>
       </c>
       <c r="B29">
         <v>124</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>17.32</v>
+      </c>
+      <c r="D29">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>46.4</v>
       </c>
       <c r="B30">
         <v>126</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>17.96</v>
+      </c>
+      <c r="D30">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>48.07</v>
       </c>
       <c r="B31">
         <v>126</v>
+      </c>
+      <c r="C31">
+        <v>18.55</v>
+      </c>
+      <c r="D31">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -658,263 +850,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908599D6-363B-4E3E-872C-B08C4518245D}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.6</v>
-      </c>
-      <c r="B2">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.27</v>
-      </c>
-      <c r="B3">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1.85</v>
-      </c>
-      <c r="B4">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="B5">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3.05</v>
-      </c>
-      <c r="B6">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3.68</v>
-      </c>
-      <c r="B7">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4.29</v>
-      </c>
-      <c r="B8">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="B9">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5.51</v>
-      </c>
-      <c r="B10">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>6.09</v>
-      </c>
-      <c r="B11">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>6.7</v>
-      </c>
-      <c r="B12">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>7.35</v>
-      </c>
-      <c r="B13">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>7.89</v>
-      </c>
-      <c r="B14">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>8.56</v>
-      </c>
-      <c r="B15">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>9.17</v>
-      </c>
-      <c r="B16">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="B17">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>10.42</v>
-      </c>
-      <c r="B18">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>11.03</v>
-      </c>
-      <c r="B19">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>11.64</v>
-      </c>
-      <c r="B20">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>12.28</v>
-      </c>
-      <c r="B21">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>12.89</v>
-      </c>
-      <c r="B22">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>13.51</v>
-      </c>
-      <c r="B23">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>14.14</v>
-      </c>
-      <c r="B24">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>14.79</v>
-      </c>
-      <c r="B25">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>15.39</v>
-      </c>
-      <c r="B26">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>16.059999999999999</v>
-      </c>
-      <c r="B27">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>16.68</v>
-      </c>
-      <c r="B28">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>17.32</v>
-      </c>
-      <c r="B29">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>17.96</v>
-      </c>
-      <c r="B30">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>18.55</v>
-      </c>
-      <c r="B31">
-        <v>333</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>